--- a/data/trans_orig/P62-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>171110</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>153594</v>
+        <v>154733</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187040</v>
+        <v>187715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5608463111311578</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5034341037100328</v>
+        <v>0.5071653630621855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6130588231383005</v>
+        <v>0.6152700148559505</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>128</v>
@@ -765,19 +765,19 @@
         <v>126647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107927</v>
+        <v>110159</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145811</v>
+        <v>146230</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2388990756046544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2035863775341689</v>
+        <v>0.2077968723523146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2750484434968588</v>
+        <v>0.2758397547484726</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>304</v>
@@ -786,19 +786,19 @@
         <v>297758</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>272193</v>
+        <v>270167</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>328386</v>
+        <v>325352</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.356501479525796</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3258928613065186</v>
+        <v>0.3234672860933419</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3931723977828243</v>
+        <v>0.3895402242393641</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>133983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118053</v>
+        <v>117378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151499</v>
+        <v>150360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4391536888688422</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3869411768616995</v>
+        <v>0.3847299851440496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4965658962899675</v>
+        <v>0.4928346369378145</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>413</v>
@@ -836,19 +836,19 @@
         <v>403480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>384316</v>
+        <v>383897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>422200</v>
+        <v>419968</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7611009243953456</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7249515565031412</v>
+        <v>0.7241602452515274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7964136224658309</v>
+        <v>0.7922031276476854</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>548</v>
@@ -857,19 +857,19 @@
         <v>537463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>506835</v>
+        <v>509869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>563028</v>
+        <v>565054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6434985204742041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6068276022171759</v>
+        <v>0.6104597757606361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.674107138693482</v>
+        <v>0.6765327139066581</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>225328</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>205614</v>
+        <v>204887</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>244092</v>
+        <v>244682</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5622281699783565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5130389700978674</v>
+        <v>0.5112251415178977</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6090469464883718</v>
+        <v>0.6105188175960227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -982,19 +982,19 @@
         <v>153384</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131209</v>
+        <v>132139</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178985</v>
+        <v>177040</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2189118508782693</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1872635795958288</v>
+        <v>0.1885909091992495</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2554494274659613</v>
+        <v>0.2526730271854283</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>365</v>
@@ -1003,19 +1003,19 @@
         <v>378712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>347540</v>
+        <v>347427</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408404</v>
+        <v>410815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3438327142905955</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3155309350140559</v>
+        <v>0.3154284763853439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3707896528559536</v>
+        <v>0.3729784503012648</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>175449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>156685</v>
+        <v>156095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>195163</v>
+        <v>195890</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4377718300216435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3909530535116283</v>
+        <v>0.3894811824039773</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4869610299021326</v>
+        <v>0.4887748584821023</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>517</v>
@@ -1053,19 +1053,19 @@
         <v>547283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>521682</v>
+        <v>523627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>569458</v>
+        <v>568528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7810881491217306</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7445505725340387</v>
+        <v>0.7473269728145716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.812736420404171</v>
+        <v>0.8114090908007505</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>681</v>
@@ -1074,19 +1074,19 @@
         <v>722732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>693040</v>
+        <v>690629</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>753904</v>
+        <v>754017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6561672857094045</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6292103471440464</v>
+        <v>0.6270215496987352</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.684469064985944</v>
+        <v>0.684571523614656</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>155381</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138876</v>
+        <v>140024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170794</v>
+        <v>172234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5761136028688559</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5149192839978732</v>
+        <v>0.5191730551151209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6332620256056559</v>
+        <v>0.6386008480095342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -1199,19 +1199,19 @@
         <v>120783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103034</v>
+        <v>103344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138815</v>
+        <v>141337</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2590835301034319</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2210114602921619</v>
+        <v>0.2216765831197695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2977630102490368</v>
+        <v>0.303173023226622</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>273</v>
@@ -1220,19 +1220,19 @@
         <v>276164</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249399</v>
+        <v>249333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302780</v>
+        <v>303135</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.375274150576694</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3389042560967008</v>
+        <v>0.338813516668152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.411442673632723</v>
+        <v>0.4119244185845875</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>114324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98911</v>
+        <v>97471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130829</v>
+        <v>129681</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4238863971311441</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3667379743943441</v>
+        <v>0.3613991519904658</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4850807160021269</v>
+        <v>0.480826944884879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>357</v>
@@ -1270,19 +1270,19 @@
         <v>345411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327379</v>
+        <v>324857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>363160</v>
+        <v>362850</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7409164698965681</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7022369897509633</v>
+        <v>0.696826976773378</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7789885397078381</v>
+        <v>0.7783234168802305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>469</v>
@@ -1291,19 +1291,19 @@
         <v>459735</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>433119</v>
+        <v>432764</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>486500</v>
+        <v>486566</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.624725849423306</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.588557326367277</v>
+        <v>0.5880755814154125</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6610957439032988</v>
+        <v>0.661186483331848</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>189860</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>169824</v>
+        <v>171577</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208175</v>
+        <v>208088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4947255675922188</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4425162190887881</v>
+        <v>0.4470862093193248</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5424508373822703</v>
+        <v>0.5422223583124621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -1416,19 +1416,19 @@
         <v>177316</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156529</v>
+        <v>155217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202203</v>
+        <v>200225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2729816925103991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2409804520329783</v>
+        <v>0.2389594444854939</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3112956043075853</v>
+        <v>0.3082502336439578</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>376</v>
@@ -1437,19 +1437,19 @@
         <v>367176</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>341665</v>
+        <v>335371</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>402268</v>
+        <v>395902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3553357758435904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3306475830708636</v>
+        <v>0.3245563211027982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3892965796216862</v>
+        <v>0.3831358707205969</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>193908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>175593</v>
+        <v>175680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213944</v>
+        <v>212191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5052744324077812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4575491626177298</v>
+        <v>0.4577776416875379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.557483780911212</v>
+        <v>0.5529137906806753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>463</v>
@@ -1487,19 +1487,19 @@
         <v>472236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>447349</v>
+        <v>449327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>493023</v>
+        <v>494335</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7270183074896008</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6887043956924146</v>
+        <v>0.6917497663560422</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7590195479670216</v>
+        <v>0.7610405555145061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>670</v>
@@ -1508,19 +1508,19 @@
         <v>666144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>631052</v>
+        <v>637418</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>691655</v>
+        <v>697949</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6446642241564097</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6107034203783138</v>
+        <v>0.6168641292794032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6693524169291365</v>
+        <v>0.6754436788972018</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>741679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.545615780097335</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>558</v>
@@ -1633,19 +1633,19 @@
         <v>578130</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2463755773799956</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1318</v>
@@ -1654,19 +1654,19 @@
         <v>1319809</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3561388928180357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>617664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>582569</v>
+        <v>580441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>650521</v>
+        <v>650196</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4543842199026649</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4285669050275182</v>
+        <v>0.427000847589141</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4785552573563461</v>
+        <v>0.478316366868248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1750</v>
@@ -1704,19 +1704,19 @@
         <v>1768411</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1726528</v>
+        <v>1725222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1811152</v>
+        <v>1805813</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7536244226200044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.735775673088387</v>
+        <v>0.7352193626169249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7718389910035673</v>
+        <v>0.7695637615078265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2368</v>
@@ -1725,19 +1725,19 @@
         <v>2386074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2329698</v>
+        <v>2330518</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2445346</v>
+        <v>2442316</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6438611071819642</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6286486494376349</v>
+        <v>0.6288697353972486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6598552399960039</v>
+        <v>0.6590376672271135</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>212566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191064</v>
+        <v>191150</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>233602</v>
+        <v>234454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4937634892018789</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4438187526800149</v>
+        <v>0.4440186235743987</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5426275011175855</v>
+        <v>0.5446075059338937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -2090,19 +2090,19 @@
         <v>165198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>145240</v>
+        <v>143079</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>188204</v>
+        <v>187779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3165129513006882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2782744385909912</v>
+        <v>0.2741335859141868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3605916460786213</v>
+        <v>0.3597775626501044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>351</v>
@@ -2111,19 +2111,19 @@
         <v>377764</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>346356</v>
+        <v>346203</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>408361</v>
+        <v>409523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3966305902713083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3636541738846801</v>
+        <v>0.3634931546779305</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4287557143321431</v>
+        <v>0.4299757874627568</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>217935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196899</v>
+        <v>196047</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>239437</v>
+        <v>239351</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.506236510798121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4573724988824146</v>
+        <v>0.4553924940661063</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5561812473199851</v>
+        <v>0.5559813764256012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>331</v>
@@ -2161,19 +2161,19 @@
         <v>356733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333727</v>
+        <v>334152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>376691</v>
+        <v>378852</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6834870486993118</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6394083539213786</v>
+        <v>0.6402224373498957</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7217255614090088</v>
+        <v>0.7258664140858132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>545</v>
@@ -2182,19 +2182,19 @@
         <v>574668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>544071</v>
+        <v>542909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>606076</v>
+        <v>606229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6033694097286918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5712442856678569</v>
+        <v>0.5700242125372432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.63634582611532</v>
+        <v>0.6365068453220696</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>246243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>219891</v>
+        <v>222053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>269746</v>
+        <v>270514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4090313600920566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3652586304009166</v>
+        <v>0.3688503986750727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4480734113684974</v>
+        <v>0.4493475498450258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>190</v>
@@ -2307,19 +2307,19 @@
         <v>209750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184047</v>
+        <v>186403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>236804</v>
+        <v>237739</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2787141095096846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2445599609470157</v>
+        <v>0.247691785680038</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3146631808894247</v>
+        <v>0.315905787429179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>412</v>
@@ -2328,19 +2328,19 @@
         <v>455992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>421794</v>
+        <v>422887</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>494167</v>
+        <v>496305</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3366309685903493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3113843405136456</v>
+        <v>0.3121913329002818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.364813039999833</v>
+        <v>0.3663913788383802</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>355771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>332268</v>
+        <v>331500</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>382123</v>
+        <v>379961</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5909686399079435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5519265886315027</v>
+        <v>0.5506524501549742</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6347413695990834</v>
+        <v>0.6311496013249274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>497</v>
@@ -2378,19 +2378,19 @@
         <v>542812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>515758</v>
+        <v>514823</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>568515</v>
+        <v>566159</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7212858904903153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6853368191105752</v>
+        <v>0.684094212570821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7554400390529843</v>
+        <v>0.7523082143199619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>828</v>
@@ -2399,19 +2399,19 @@
         <v>898584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>860409</v>
+        <v>858271</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>932782</v>
+        <v>931689</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6633690314096506</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6351869600001663</v>
+        <v>0.6336086211616198</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6886156594863544</v>
+        <v>0.6878086670997182</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>168741</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148319</v>
+        <v>147609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>190867</v>
+        <v>190419</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3903350977659806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3430937747889376</v>
+        <v>0.3414520404949506</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4415183075622349</v>
+        <v>0.4404812810245992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -2524,19 +2524,19 @@
         <v>147873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127334</v>
+        <v>127855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170919</v>
+        <v>170327</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2645940229432291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2278423274580594</v>
+        <v>0.2287751552695456</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.305830041280354</v>
+        <v>0.3047713779291631</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>279</v>
@@ -2545,19 +2545,19 @@
         <v>316614</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286796</v>
+        <v>289151</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>352345</v>
+        <v>350679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.319436116361265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2893526434732034</v>
+        <v>0.2917287012090606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3554852726949631</v>
+        <v>0.3538044093412262</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>263557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>241431</v>
+        <v>241879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283979</v>
+        <v>284689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6096649022340195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5584816924377652</v>
+        <v>0.5595187189754008</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6569062252110625</v>
+        <v>0.6585479595050496</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>378</v>
@@ -2595,19 +2595,19 @@
         <v>410995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>387949</v>
+        <v>388541</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>431534</v>
+        <v>431013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7354059770567709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6941699587196458</v>
+        <v>0.6952286220708371</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7721576725419402</v>
+        <v>0.7712248447304546</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -2616,19 +2616,19 @@
         <v>674551</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>638820</v>
+        <v>640486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>704369</v>
+        <v>702014</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.680563883638735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6445147273050369</v>
+        <v>0.6461955906587739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7106473565267966</v>
+        <v>0.7082712987909396</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>244670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>220258</v>
+        <v>220274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>268723</v>
+        <v>267203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4736163744882722</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4263611956494405</v>
+        <v>0.4263912093324769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5201758756008352</v>
+        <v>0.5172334740954769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>212</v>
@@ -2741,19 +2741,19 @@
         <v>225397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>198924</v>
+        <v>201014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>252052</v>
+        <v>251982</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3045176014933429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2687510348413354</v>
+        <v>0.2715754149517011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3405284944526715</v>
+        <v>0.3404340799828638</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>434</v>
@@ -2762,19 +2762,19 @@
         <v>470068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>435649</v>
+        <v>437341</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>507785</v>
+        <v>506021</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3740258749612899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3466392884002965</v>
+        <v>0.347985650939484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4040368128900327</v>
+        <v>0.4026329254626976</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>271930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>247877</v>
+        <v>249397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296342</v>
+        <v>296326</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5263836255117278</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4798241243991648</v>
+        <v>0.482766525904523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5736388043505595</v>
+        <v>0.5736087906675232</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>493</v>
@@ -2812,19 +2812,19 @@
         <v>514781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>488126</v>
+        <v>488196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>541254</v>
+        <v>539164</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6954823985066571</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6594715055473285</v>
+        <v>0.6595659200171362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7312489651586644</v>
+        <v>0.7284245850482989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>766</v>
@@ -2833,19 +2833,19 @@
         <v>786711</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>748994</v>
+        <v>750758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>821130</v>
+        <v>819438</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6259741250387101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5959631871099673</v>
+        <v>0.5973670745373025</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6533607115997035</v>
+        <v>0.6520143490605159</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>872220</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>825377</v>
+        <v>828209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>916397</v>
+        <v>917448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4402008230285644</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4165599947831586</v>
+        <v>0.4179888818832902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4624968442727683</v>
+        <v>0.4630271117155343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>689</v>
@@ -2958,19 +2958,19 @@
         <v>748218</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>702346</v>
+        <v>703200</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>798323</v>
+        <v>794106</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2907350259202509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2729106663099228</v>
+        <v>0.2732423443920264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3102045627229664</v>
+        <v>0.3085658548296076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1476</v>
@@ -2979,19 +2979,19 @@
         <v>1620438</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1558675</v>
+        <v>1555332</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1689337</v>
+        <v>1683477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3557529550475588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3421935555380589</v>
+        <v>0.3414595838440916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3708792537051283</v>
+        <v>0.3695926601226737</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1109193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1065016</v>
+        <v>1063965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1156036</v>
+        <v>1153204</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5597991769714356</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5375031557272318</v>
+        <v>0.5369728882844657</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5834400052168417</v>
+        <v>0.5820111181167098</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1699</v>
@@ -3029,19 +3029,19 @@
         <v>1825320</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1775215</v>
+        <v>1779432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1871192</v>
+        <v>1870338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7092649740797492</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6897954372770339</v>
+        <v>0.6914341451703924</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7270893336900771</v>
+        <v>0.7267576556079737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2764</v>
@@ -3050,19 +3050,19 @@
         <v>2934514</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2865615</v>
+        <v>2871475</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2996277</v>
+        <v>2999620</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6442470449524412</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6291207462948718</v>
+        <v>0.6304073398773264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6578064444619411</v>
+        <v>0.6585404161559085</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>189492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>169023</v>
+        <v>168921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>209120</v>
+        <v>210630</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4452234734304198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3971296819332764</v>
+        <v>0.3968900662610472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4913405395890603</v>
+        <v>0.4948862460009161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -3415,19 +3415,19 @@
         <v>149121</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128647</v>
+        <v>129477</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170775</v>
+        <v>169443</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2994089914666696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2583007485575778</v>
+        <v>0.2599669767949896</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3428873063594921</v>
+        <v>0.3402120728611086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>331</v>
@@ -3436,19 +3436,19 @@
         <v>338613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>308892</v>
+        <v>309827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>368337</v>
+        <v>366233</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3665984862713851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3344206025348422</v>
+        <v>0.3354332349702168</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3987788014529838</v>
+        <v>0.3965013442538606</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>236120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>216492</v>
+        <v>214982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>256589</v>
+        <v>256691</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5547765265695802</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5086594604109398</v>
+        <v>0.505113753999084</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6028703180667238</v>
+        <v>0.6031099337389528</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>349</v>
@@ -3486,19 +3486,19 @@
         <v>348929</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>327275</v>
+        <v>328607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>369403</v>
+        <v>368573</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7005910085333305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6571126936405077</v>
+        <v>0.6597879271388909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7416992514424219</v>
+        <v>0.7400330232050103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>570</v>
@@ -3507,19 +3507,19 @@
         <v>585049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>555325</v>
+        <v>557429</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>614770</v>
+        <v>613835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6334015137286149</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6012211985470166</v>
+        <v>0.6034986557461394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6655793974651583</v>
+        <v>0.6645667650297832</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>264615</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>239158</v>
+        <v>240069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>287595</v>
+        <v>288475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4396900928980637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3973897685949951</v>
+        <v>0.3989036987993071</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4778735217040528</v>
+        <v>0.4793365187086414</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -3632,19 +3632,19 @@
         <v>203855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177429</v>
+        <v>179579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>230037</v>
+        <v>231439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2704766882024561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2354149110289769</v>
+        <v>0.2382675375877906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3052159835604387</v>
+        <v>0.3070751447264696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>437</v>
@@ -3653,19 +3653,19 @@
         <v>468470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>433180</v>
+        <v>431807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>504293</v>
+        <v>502964</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3456044313195898</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3195701902479501</v>
+        <v>0.3185570094590447</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3720325702318594</v>
+        <v>0.3710517482937477</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>337207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>314227</v>
+        <v>313347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>362664</v>
+        <v>361753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5603099071019363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5221264782959472</v>
+        <v>0.5206634812913588</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6026102314050048</v>
+        <v>0.6010963012006928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>521</v>
@@ -3703,19 +3703,19 @@
         <v>549832</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>523650</v>
+        <v>522248</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>576258</v>
+        <v>574108</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7295233117975439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6947840164395613</v>
+        <v>0.6929248552735304</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7645850889710233</v>
+        <v>0.7617324624122094</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>833</v>
@@ -3724,19 +3724,19 @@
         <v>887039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>851216</v>
+        <v>852545</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>922329</v>
+        <v>923702</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6543955686804102</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6279674297681406</v>
+        <v>0.6289482517062523</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6804298097520499</v>
+        <v>0.6814429905409553</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>182071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161090</v>
+        <v>162813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202003</v>
+        <v>203372</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4669379415450722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4131298277097114</v>
+        <v>0.4175483910148946</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5180552395853767</v>
+        <v>0.5215657835401921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -3849,19 +3849,19 @@
         <v>138296</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118090</v>
+        <v>118186</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>159973</v>
+        <v>161336</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2737405953396102</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2337457994560412</v>
+        <v>0.2339346688520807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3166478949241837</v>
+        <v>0.3193456646434994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>290</v>
@@ -3870,19 +3870,19 @@
         <v>320367</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>291772</v>
+        <v>291791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>352894</v>
+        <v>353405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3578985299860818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3259532405552091</v>
+        <v>0.3259742564957802</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3942360568149436</v>
+        <v>0.3948067545146159</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>207855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187923</v>
+        <v>186554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>228836</v>
+        <v>227113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5330620584549278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4819447604146233</v>
+        <v>0.4784342164598079</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5868701722902887</v>
+        <v>0.5824516089851053</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>345</v>
@@ -3920,19 +3920,19 @@
         <v>366912</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>345235</v>
+        <v>343872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>387118</v>
+        <v>387022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7262594046603897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6833521050758162</v>
+        <v>0.6806543353565008</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7662542005439589</v>
+        <v>0.7660653311479194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>535</v>
@@ -3941,19 +3941,19 @@
         <v>574767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>542240</v>
+        <v>541729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>603362</v>
+        <v>603343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6421014700139183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6057639431850569</v>
+        <v>0.6051932454853841</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.674046759444791</v>
+        <v>0.6740257435042197</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>266047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>240726</v>
+        <v>243246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>287582</v>
+        <v>288321</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5029643547284846</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4550954700225779</v>
+        <v>0.4598605167791423</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5436779048824639</v>
+        <v>0.5450748167480176</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -4066,19 +4066,19 @@
         <v>250749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>225714</v>
+        <v>221820</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>278586</v>
+        <v>278851</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3575337485589561</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3218375676351622</v>
+        <v>0.3162850117371638</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.397225043928035</v>
+        <v>0.3976027860937893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>484</v>
@@ -4087,19 +4087,19 @@
         <v>516796</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>478650</v>
+        <v>481810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>549939</v>
+        <v>552404</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4200610101563644</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3890558640881794</v>
+        <v>0.3916242425469766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4470006796419018</v>
+        <v>0.4490038681933379</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>262910</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>241375</v>
+        <v>240636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>288231</v>
+        <v>285711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4970356452715154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4563220951175361</v>
+        <v>0.4549251832519823</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.544904529977422</v>
+        <v>0.5401394832208576</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>425</v>
@@ -4137,19 +4137,19 @@
         <v>450581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>422744</v>
+        <v>422479</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>475616</v>
+        <v>479510</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6424662514410439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6027749560719649</v>
+        <v>0.6023972139062107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6781624323648378</v>
+        <v>0.6837149882628362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>683</v>
@@ -4158,19 +4158,19 @@
         <v>713491</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680348</v>
+        <v>677883</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>751637</v>
+        <v>748477</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5799389898436356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.552999320358098</v>
+        <v>0.5509961318066621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6109441359118206</v>
+        <v>0.6083757574530234</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>902225</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>863166</v>
+        <v>859441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>946459</v>
+        <v>948433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4635552000949618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4434870773061729</v>
+        <v>0.4415732256726386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4862822079331806</v>
+        <v>0.4872965874936976</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>639</v>
@@ -4283,19 +4283,19 @@
         <v>742021</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>695754</v>
+        <v>688176</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>789777</v>
+        <v>788587</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3018460071529139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2830251059357509</v>
+        <v>0.2799426836237374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3212726229862083</v>
+        <v>0.3207888197976912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1542</v>
@@ -4304,19 +4304,19 @@
         <v>1644246</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1578912</v>
+        <v>1581230</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1713381</v>
+        <v>1712397</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3733026194381282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3584695447151721</v>
+        <v>0.3589957819901721</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3889988145367836</v>
+        <v>0.3887753130960044</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1044091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>999857</v>
+        <v>997883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1083150</v>
+        <v>1086875</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5364447999050381</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5137177920668196</v>
+        <v>0.5127034125063021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5565129226938275</v>
+        <v>0.5584267743273612</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1640</v>
@@ -4354,19 +4354,19 @@
         <v>1716255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1668499</v>
+        <v>1669689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1762522</v>
+        <v>1770100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6981539928470861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6787273770137917</v>
+        <v>0.679211180202309</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7169748940642494</v>
+        <v>0.7200573163762627</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2621</v>
@@ -4375,19 +4375,19 @@
         <v>2760347</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2691212</v>
+        <v>2692196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2825681</v>
+        <v>2823363</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6266973805618719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6110011854632164</v>
+        <v>0.6112246869039958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6415304552848285</v>
+        <v>0.6410042180098281</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>196624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174725</v>
+        <v>174596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214974</v>
+        <v>216022</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6125796617060789</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5443543927217604</v>
+        <v>0.5439503183667262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6697478441928546</v>
+        <v>0.6730148948332394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>396</v>
@@ -4740,19 +4740,19 @@
         <v>181294</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165499</v>
+        <v>165129</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>198047</v>
+        <v>198051</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4025158826401302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3674482998113404</v>
+        <v>0.3666255983431351</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4397122521959065</v>
+        <v>0.4397219179292778</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>673</v>
@@ -4761,19 +4761,19 @@
         <v>377918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>352298</v>
+        <v>352539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>400858</v>
+        <v>404370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4899251908229463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4567120141239344</v>
+        <v>0.457024849577052</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5196652457681904</v>
+        <v>0.5242172986983409</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>124353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106003</v>
+        <v>104955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146252</v>
+        <v>146381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.387420338293921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3302521558071452</v>
+        <v>0.3269851051667604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4556456072782396</v>
+        <v>0.4560496816332736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>423</v>
@@ -4811,19 +4811,19 @@
         <v>269107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252354</v>
+        <v>252350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284902</v>
+        <v>285272</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5974841173598697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5602877478040937</v>
+        <v>0.5602780820707222</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6325517001886598</v>
+        <v>0.6333744016568651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>536</v>
@@ -4832,19 +4832,19 @@
         <v>393460</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>370520</v>
+        <v>367008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>419080</v>
+        <v>418839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5100748091770537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4803347542318094</v>
+        <v>0.4757827013016589</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5432879858760655</v>
+        <v>0.542975150422948</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>219541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>196464</v>
+        <v>195374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>241878</v>
+        <v>241371</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5276916704903727</v>
+        <v>0.5276916704903728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4722234312094418</v>
+        <v>0.4696038065513667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5813799039952786</v>
+        <v>0.5801622839379541</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>360</v>
@@ -4957,19 +4957,19 @@
         <v>204828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184486</v>
+        <v>184951</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224377</v>
+        <v>224050</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3324815034881907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2994615191602921</v>
+        <v>0.3002162805440774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3642137219258559</v>
+        <v>0.3636827186272392</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>647</v>
@@ -4978,19 +4978,19 @@
         <v>424370</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>395755</v>
+        <v>393367</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>451509</v>
+        <v>453969</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4111709694922031</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3834461808556912</v>
+        <v>0.3811322071301782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4374661223897731</v>
+        <v>0.4398499999232174</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>196500</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174163</v>
+        <v>174670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>219577</v>
+        <v>220667</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4723083295096271</v>
+        <v>0.4723083295096272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4186200960047213</v>
+        <v>0.419837716062046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5277765687905582</v>
+        <v>0.5303961934486335</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>553</v>
@@ -5028,19 +5028,19 @@
         <v>411231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>391682</v>
+        <v>392009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>431573</v>
+        <v>431108</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6675184965118092</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6357862780741441</v>
+        <v>0.6363172813727608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7005384808397077</v>
+        <v>0.6997837194559225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -5049,19 +5049,19 @@
         <v>607730</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>580591</v>
+        <v>578131</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>636345</v>
+        <v>638733</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5888290305077969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.562533877610227</v>
+        <v>0.5601500000767825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6165538191443087</v>
+        <v>0.6188677928698219</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>226453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>203205</v>
+        <v>202207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>250176</v>
+        <v>250455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5978055940609972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5364331347297236</v>
+        <v>0.533800492017601</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6604301997534121</v>
+        <v>0.6611681514769561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -5174,19 +5174,19 @@
         <v>164569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>146318</v>
+        <v>146452</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182760</v>
+        <v>183568</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3500858100092267</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3112620401417792</v>
+        <v>0.3115471997928579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3887845487468756</v>
+        <v>0.3905037334369673</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>496</v>
@@ -5195,19 +5195,19 @@
         <v>391022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>358838</v>
+        <v>361706</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>420178</v>
+        <v>421112</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4606281359467356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4227155570658542</v>
+        <v>0.4260937108363222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4949745817907789</v>
+        <v>0.4960750433945769</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>152354</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128631</v>
+        <v>128352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175602</v>
+        <v>176600</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4021944059390027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3395698002465881</v>
+        <v>0.3388318485230439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4635668652702766</v>
+        <v>0.4661995079823989</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>369</v>
@@ -5245,19 +5245,19 @@
         <v>305512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>287321</v>
+        <v>286513</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>323763</v>
+        <v>323629</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6499141899907732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6112154512531244</v>
+        <v>0.6094962665630327</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6887379598582208</v>
+        <v>0.6884528002071419</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>466</v>
@@ -5266,19 +5266,19 @@
         <v>457866</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>428710</v>
+        <v>427776</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>490050</v>
+        <v>487182</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5393718640532645</v>
+        <v>0.5393718640532644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.505025418209221</v>
+        <v>0.5039249566054231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5772844429341456</v>
+        <v>0.5739062891636777</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>231831</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209837</v>
+        <v>207802</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255512</v>
+        <v>256473</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4931752858996162</v>
+        <v>0.4931752858996161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4463861828945302</v>
+        <v>0.4420569355853219</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5435511996004396</v>
+        <v>0.5455957996472729</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>427</v>
@@ -5391,19 +5391,19 @@
         <v>260073</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>237348</v>
+        <v>237383</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283733</v>
+        <v>279040</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.391961867561869</v>
+        <v>0.3919618675618689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3577115201021495</v>
+        <v>0.3577646608655861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4276203696434588</v>
+        <v>0.4205472875221722</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>752</v>
@@ -5412,19 +5412,19 @@
         <v>491905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>461675</v>
+        <v>464619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>524124</v>
+        <v>522836</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4339329820004886</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4072659229739632</v>
+        <v>0.4098633492039599</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.462354808100954</v>
+        <v>0.4612193111400726</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>238248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>214567</v>
+        <v>213606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>260242</v>
+        <v>262277</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5068247141003838</v>
+        <v>0.5068247141003839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4564488003995605</v>
+        <v>0.4544042003527271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5536138171054701</v>
+        <v>0.5579430644146782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -5462,19 +5462,19 @@
         <v>403444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379784</v>
+        <v>384477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>426169</v>
+        <v>426134</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.608038132438131</v>
+        <v>0.6080381324381311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5723796303565412</v>
+        <v>0.5794527124778276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6422884798978502</v>
+        <v>0.642235339134414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>724</v>
@@ -5483,19 +5483,19 @@
         <v>641691</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>609472</v>
+        <v>610760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>671921</v>
+        <v>668977</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5660670179995115</v>
+        <v>0.5660670179995114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5376451918990462</v>
+        <v>0.5387806888599274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.592734077026037</v>
+        <v>0.5901366507960402</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>874450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>830169</v>
+        <v>828246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>920335</v>
+        <v>917733</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5513887680970891</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.523467444680313</v>
+        <v>0.5222550828412503</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5803220499493489</v>
+        <v>0.5786813653468095</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1433</v>
@@ -5608,19 +5608,19 @@
         <v>810764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>770248</v>
+        <v>773108</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>848010</v>
+        <v>850646</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3685193055784265</v>
+        <v>0.3685193055784266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3501033437173701</v>
+        <v>0.3514033627066935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3854488634138085</v>
+        <v>0.3866470633781927</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2568</v>
@@ -5629,19 +5629,19 @@
         <v>1685213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1630171</v>
+        <v>1634382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1741350</v>
+        <v>1749323</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4451216008317878</v>
+        <v>0.4451216008317879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4305830870206366</v>
+        <v>0.4316951990191983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4599490526034813</v>
+        <v>0.4620550453562696</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>711454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>665569</v>
+        <v>668171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>755735</v>
+        <v>757658</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4486112319029107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4196779500506511</v>
+        <v>0.4213186346531907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4765325553196869</v>
+        <v>0.4777449171587497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1869</v>
@@ -5679,19 +5679,19 @@
         <v>1389294</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1352048</v>
+        <v>1349412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1429810</v>
+        <v>1426950</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6314806944215733</v>
+        <v>0.6314806944215734</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6145511365861914</v>
+        <v>0.6133529366218072</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6498966562826299</v>
+        <v>0.6485966372933065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2423</v>
@@ -5700,19 +5700,19 @@
         <v>2100749</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2044612</v>
+        <v>2036639</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2155791</v>
+        <v>2151580</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5548783991682121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5400509473965187</v>
+        <v>0.5379449546437303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5694169129793635</v>
+        <v>0.5683048009808017</v>
       </c>
     </row>
     <row r="18">
